--- a/data/trans_dic/P2B_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.4078429359836235</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3739656736275454</v>
+        <v>0.3739656736275455</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2369660179735655</v>
@@ -697,7 +697,7 @@
         <v>0.3978776659334043</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3301944606392878</v>
+        <v>0.3301944606392879</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1780856331107357</v>
+        <v>0.1780265639046256</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4404684244462477</v>
+        <v>0.4388517939517613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3445893922696418</v>
+        <v>0.3465532797526509</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2278699444126719</v>
+        <v>0.223840636733203</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2357437625463459</v>
+        <v>0.2380375199313906</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4323417675624036</v>
+        <v>0.4329286346784317</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3734674342294665</v>
+        <v>0.371055834374155</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3472607496579723</v>
+        <v>0.3475967983579716</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2195201307970689</v>
+        <v>0.217745610478065</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.443710631298824</v>
+        <v>0.4428564272207607</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3721365054226765</v>
+        <v>0.373699919069603</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3091864885759091</v>
+        <v>0.3111150343187008</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2322380413743904</v>
+        <v>0.2313929000438562</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5110583524210152</v>
+        <v>0.5094128930847913</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4242225446117136</v>
+        <v>0.4230902928817946</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.303091222667086</v>
+        <v>0.3008765796663841</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2856375377855841</v>
+        <v>0.2867338307378557</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4893005121520512</v>
+        <v>0.4896084680952091</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4405315619083454</v>
+        <v>0.4443252795285059</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4004783177741759</v>
+        <v>0.4020035087520721</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2545684495741284</v>
+        <v>0.2565528680262752</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4902119514876461</v>
+        <v>0.4896047243916106</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4233777858175851</v>
+        <v>0.4220799336869194</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3524270534138948</v>
+        <v>0.3556131417567088</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1962612342252134</v>
+        <v>0.1953370331964528</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5165106038117089</v>
+        <v>0.5179507734230139</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3901433724567526</v>
+        <v>0.3886693384464111</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2189978313747931</v>
+        <v>0.2195945597175367</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2338362592927241</v>
+        <v>0.2327688246799922</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5783421045664797</v>
+        <v>0.5754228314773042</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4701917665333067</v>
+        <v>0.4666964455645761</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.235619550750119</v>
+        <v>0.2360741596425454</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2235230832483683</v>
+        <v>0.2226217013129021</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5546692497573426</v>
+        <v>0.5540434479791412</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4396281220415948</v>
+        <v>0.4388350898102315</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2341982359318974</v>
+        <v>0.2347145478285818</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2449552235627315</v>
+        <v>0.2447765883099738</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5710232064904635</v>
+        <v>0.5706945002028165</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4420851996746518</v>
+        <v>0.4417848374563206</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2673974689431162</v>
+        <v>0.2668309080107027</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2832158594283007</v>
+        <v>0.2818165012884423</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6298391675630957</v>
+        <v>0.6289010440983973</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5218163158458637</v>
+        <v>0.5186580654374565</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2762561536058274</v>
+        <v>0.2759313465277272</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2564795063844387</v>
+        <v>0.2560688347236255</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.590889361717743</v>
+        <v>0.591651425872451</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4759343228369216</v>
+        <v>0.4749007095755313</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2669319278733729</v>
+        <v>0.2661760445505974</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.5123953642314872</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2049322379250495</v>
+        <v>0.2049322379250496</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.261701202825203</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2055987390862129</v>
+        <v>0.2028740689328125</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4560743779978025</v>
+        <v>0.4532135611904528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4221027632359187</v>
+        <v>0.4258590104816978</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.173910704049526</v>
+        <v>0.1723143695051485</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2346290078687582</v>
+        <v>0.2336245806870453</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5093084001013998</v>
+        <v>0.5048100978702688</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4638472223440557</v>
+        <v>0.464181787182303</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1761110328706721</v>
+        <v>0.1733061203380693</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2294107668577931</v>
+        <v>0.231530305141095</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4955154870123633</v>
+        <v>0.4996237526014802</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4585603999324914</v>
+        <v>0.4574605186647784</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1838329601025615</v>
+        <v>0.1842583296876729</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2896839040221268</v>
+        <v>0.2951115928826979</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5687467023404779</v>
+        <v>0.5645734927995897</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5349910040765119</v>
+        <v>0.5355795671245193</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2610919810034898</v>
+        <v>0.2595815710421244</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3301772890689894</v>
+        <v>0.3283144844847106</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6178473362156468</v>
+        <v>0.6130764990125968</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5646860260964126</v>
+        <v>0.5609773682147036</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2387103148212313</v>
+        <v>0.2383983015589944</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.294192037390798</v>
+        <v>0.2950543739631954</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5744139866374696</v>
+        <v>0.5762133908010161</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.532728431339898</v>
+        <v>0.5339747850890796</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.23621928392948</v>
+        <v>0.2348925124611427</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.4449572968976246</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2608158447120908</v>
+        <v>0.2608158447120909</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1997265867019365</v>
+        <v>0.2019323028156871</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4982072943866268</v>
+        <v>0.4970111071433492</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3958554096567689</v>
+        <v>0.396768962689892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2223225045144276</v>
+        <v>0.2208005087210437</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2457077454174861</v>
+        <v>0.2455391409605985</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5232714898069524</v>
+        <v>0.5222362906415384</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4499235557594282</v>
+        <v>0.4507838132936549</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2639374676472365</v>
+        <v>0.2638186517094401</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2306955416027019</v>
+        <v>0.2293111814613061</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5171390867393919</v>
+        <v>0.5174828671911477</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4313137928304385</v>
+        <v>0.4321208595703699</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2496612603477634</v>
+        <v>0.2492656426822975</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2341677167569262</v>
+        <v>0.2351793067866018</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5369265782156101</v>
+        <v>0.5378249711834426</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4379801134855572</v>
+        <v>0.4355728279009023</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2588697600197918</v>
+        <v>0.259750580829092</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2798482340344395</v>
+        <v>0.2779402567556291</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5592743809758511</v>
+        <v>0.5584795655548865</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4869200072418486</v>
+        <v>0.4877480331765705</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2928712121334576</v>
+        <v>0.2921614655784026</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2533832606091192</v>
+        <v>0.2541389126447806</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5448663761191027</v>
+        <v>0.5440859840952075</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4588858121377837</v>
+        <v>0.4597425118410154</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2737415173832675</v>
+        <v>0.2722318191846292</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>157794</v>
+        <v>157742</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>383436</v>
+        <v>382029</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>223875</v>
+        <v>225151</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>109038</v>
+        <v>107110</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>284010</v>
+        <v>286773</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>546946</v>
+        <v>547689</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>347329</v>
+        <v>345086</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>258812</v>
+        <v>259062</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>458972</v>
+        <v>455262</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>947588</v>
+        <v>945763</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>587863</v>
+        <v>590333</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>378384</v>
+        <v>380744</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>205776</v>
+        <v>205027</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>444886</v>
+        <v>443454</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>275611</v>
+        <v>274876</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>145032</v>
+        <v>143973</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>344119</v>
+        <v>345439</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>619004</v>
+        <v>619393</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>409699</v>
+        <v>413227</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>298474</v>
+        <v>299611</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>532251</v>
+        <v>536400</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1046896</v>
+        <v>1045599</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>668809</v>
+        <v>666758</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>431302</v>
+        <v>435201</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>234569</v>
+        <v>233464</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>782723</v>
+        <v>784905</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>582394</v>
+        <v>580194</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>314067</v>
+        <v>314923</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>301673</v>
+        <v>300296</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>871331</v>
+        <v>866933</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>756731</v>
+        <v>751105</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>381930</v>
+        <v>382667</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>555520</v>
+        <v>553280</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1676214</v>
+        <v>1674323</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1363805</v>
+        <v>1361345</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>715492</v>
+        <v>717070</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>292767</v>
+        <v>292554</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>865331</v>
+        <v>864833</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>659932</v>
+        <v>659483</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>383477</v>
+        <v>382665</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>365378</v>
+        <v>363573</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>948916</v>
+        <v>947503</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>839816</v>
+        <v>834733</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>447800</v>
+        <v>447274</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>637426</v>
+        <v>636406</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1785671</v>
+        <v>1787974</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1476433</v>
+        <v>1473227</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>815496</v>
+        <v>813187</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>78793</v>
+        <v>77749</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>162980</v>
+        <v>161957</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>145551</v>
+        <v>146846</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>79466</v>
+        <v>78736</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>88833</v>
+        <v>88453</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>187828</v>
+        <v>186169</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>189355</v>
+        <v>189492</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>89384</v>
+        <v>87960</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>174776</v>
+        <v>176391</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>359816</v>
+        <v>362799</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>345320</v>
+        <v>344492</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>177302</v>
+        <v>177713</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>111018</v>
+        <v>113098</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>203243</v>
+        <v>201752</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>184477</v>
+        <v>184680</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>119302</v>
+        <v>118611</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>125008</v>
+        <v>124303</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>227857</v>
+        <v>226097</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>230521</v>
+        <v>229007</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>121156</v>
+        <v>120997</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>224130</v>
+        <v>224787</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>417107</v>
+        <v>418414</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>401172</v>
+        <v>402111</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>227828</v>
+        <v>226548</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>492223</v>
+        <v>497659</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1366720</v>
+        <v>1363439</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>984603</v>
+        <v>986875</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>526805</v>
+        <v>523199</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>706030</v>
+        <v>705545</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1643319</v>
+        <v>1640068</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1326216</v>
+        <v>1328752</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>758503</v>
+        <v>758162</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1231438</v>
+        <v>1224048</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>3042716</v>
+        <v>3044739</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2344159</v>
+        <v>2348546</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1309062</v>
+        <v>1306988</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>577102</v>
+        <v>579595</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1472938</v>
+        <v>1475402</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1089379</v>
+        <v>1083391</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>613406</v>
+        <v>615493</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>804131</v>
+        <v>798648</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1756385</v>
+        <v>1753889</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1435269</v>
+        <v>1437710</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>841653</v>
+        <v>839613</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1352544</v>
+        <v>1356577</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>3205856</v>
+        <v>3201265</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>2494011</v>
+        <v>2498667</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1435323</v>
+        <v>1427407</v>
       </c>
     </row>
     <row r="20">
